--- a/biology/Botanique/Schizaeoisporites/Schizaeoisporites.xlsx
+++ b/biology/Botanique/Schizaeoisporites/Schizaeoisporites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Schizaeoisporites est un genre fossile de plantes de la famille des Schizaeaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database, en 2022, les fossiles sont découverts en Inde, Chine, Argentine, et Norvège[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database, en 2022, les fossiles sont découverts en Inde, Chine, Argentine, et Norvège.
 </t>
         </is>
       </c>
@@ -568,9 +584,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database, en 2022, les espèces décrites sont au nombre de huit[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database, en 2022, les espèces décrites sont au nombre de huit :
 †Schizaeoisporites crassimurus Dutta &amp; Sah, 1970
 †Schizaeoisporites dorogensis Potonié, 1951
 †Schizaeoisporites ghoshii Ramanujam, 1967
@@ -578,7 +596,7 @@
 †Schizaeoisporites minor Pocock, 1964
 †Schizaeoisporites phaseolus Delcourt &amp; Sprumont, 1955
 †Schizaeoisporites pseudorogensis Weyland &amp;Greifeild, 1953
-†Schizaeoisporites sinuata Ramanujam, 1967[1]</t>
+†Schizaeoisporites sinuata Ramanujam, 1967</t>
         </is>
       </c>
     </row>
@@ -606,9 +624,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Schizaeoisporites R.Potonié ex A.Delcourt &amp; G.Sprumont, 1955[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Schizaeoisporites R.Potonié ex A.Delcourt &amp; G.Sprumont, 1955.
 </t>
         </is>
       </c>
